--- a/database_design.xlsx
+++ b/database_design.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI\airlineproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI\airlinereservation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41725C7E-7944-4695-ADE8-974141F14771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2803DEF8-6E04-41F2-A566-58E4B8EC6593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8F18CAC-0BE5-4ABB-B493-55B4C75130AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="101">
   <si>
     <t>Flight Table</t>
   </si>
@@ -299,6 +299,45 @@
   </si>
   <si>
     <t>whether ticket is booked/cancelled</t>
+  </si>
+  <si>
+    <t>Routes Table</t>
+  </si>
+  <si>
+    <t>route_id</t>
+  </si>
+  <si>
+    <t>origin</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>Fares Table</t>
+  </si>
+  <si>
+    <t>fare_id</t>
+  </si>
+  <si>
+    <t>fare_amount</t>
+  </si>
+  <si>
+    <t>FlightSchedule Table</t>
+  </si>
+  <si>
+    <t>Schedule_id</t>
+  </si>
+  <si>
+    <t>departure_date</t>
+  </si>
+  <si>
+    <t>arrival_date</t>
+  </si>
+  <si>
+    <t>seats_avialabe</t>
+  </si>
+  <si>
+    <t>seats_booked</t>
   </si>
 </sst>
 </file>
@@ -664,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BC24FB-B2F2-4327-B53F-8F4C92D8F150}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1187,6 +1226,111 @@
         <v>81</v>
       </c>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B61" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
